--- a/biology/Zoologie/Louis_Calvet/Louis_Calvet.xlsx
+++ b/biology/Zoologie/Louis_Calvet/Louis_Calvet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Calvet, né le 7 avril 1868 à Rodome (Aude) et mort le 8 septembre 1930 à Perpignan, était un professeur de zoologie à la faculté de sciences de l'université de Clermont-Ferrand.
 </t>
@@ -511,7 +523,9 @@
           <t>Grades</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Licencié ès sciences naturelles (juillet 1893)
 Docteur ès sciences naturelles (juin 1900)</t>
@@ -542,7 +556,9 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Maître répétiteur au lycée de Carcassonne (octobre 1886 à novembre 1891).
 Préparateur adjoint de Zoologie à la Faculté des sciences de Montpellier (décembre 1893 à novembre 1894).
@@ -582,16 +598,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils d'un artisan charron originaire de Niort-de-Sault et d'une aubergiste (une rue lui est dédiée[Où ?]).
 Pressé par son instituteur, qui repère ses capacités scolaires, il devient en 1886 maître répétiteur au lycée de Carcassonne. Étudiant à l'université de Montpellier en matières médicales et scientifiques, licencié en sciences naturelles en 1893, chef des travaux pratiques du laboratoire, sous directeur de la station zoologique de Sète, en 1902.
 Il soutient une thèse sur les bryozoaires ectoproctes en 1900, classant ceux qui provenaient des campagnes scientifiques du prince de Monaco et du commandant Charcot.
-Il est l'auteur en 1897 d'un guide des travaux de zoologie, lauréat de l'Académie des sciences et des lettres de Montpellier, collaborateur des services de la marine, de l'ostréiculture et de la pisciculture[1].
+Il est l'auteur en 1897 d'un guide des travaux de zoologie, lauréat de l'Académie des sciences et des lettres de Montpellier, collaborateur des services de la marine, de l'ostréiculture et de la pisciculture.
 Élu en 1912 à la chaire zoologique de l'université de Clermont-Ferrand, chef du service antipaludique, avec étude sur les anophèles, auteur en 1919 d'un atlas de morphologie et d'anatomie des métazoaires, il procède à la détection des parasites des plantes cultivées et d'animaux domestiques.
 Il est aussi l'auteur de l'histoire ostréicole de l'étang de Thau, où il a découvert la source d'une infection des huitres (guérie par simple brossage). Il est aussi l'auteur d'un dictionnaire des pêches maritimes.
 Il est décédé des suites d'une hémorragie cérébrale.
-Adeonella calveti Canu et Basler, 1930, a été nommée en son honneur[2].
+Adeonella calveti Canu et Basler, 1930, a été nommée en son honneur.
 </t>
         </is>
       </c>
@@ -620,7 +638,9 @@
           <t>Titres divers</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Lauréat de la Faculté des Sciences de Montpellier, Prix de la Ville de Montpellier - 1893
 Lauréat de l'Académie des Sciences et Lettres de Montpellier, Prix Lichtenstein 1897 et 1903.
